--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642988.610919577</v>
+        <v>638822.0779179486</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747055</v>
+        <v>6528279.443747054</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="W10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>338.6251682162973</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>323.4380012463109</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>136.7546828088439</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>201.2150458332415</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>183.4872045441999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.496388574209154</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>157.1943800221169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>175.6738267513496</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>271.966708470261</v>
       </c>
       <c r="F17" t="n">
-        <v>392.8310130470543</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.5859147307555</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>38.08064147381526</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>414.1461065944682</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>54.91274684145317</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>77.46047044386974</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2295,7 +2295,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>35.13097398123151</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>261.5839757980208</v>
+        <v>196.51697630656</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>30.13842532804811</v>
+        <v>134.8550812659113</v>
       </c>
       <c r="T25" t="n">
         <v>239.6907226285777</v>
@@ -2535,7 +2535,7 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>237.83698450103</v>
       </c>
       <c r="G26" t="n">
-        <v>372.4805711184708</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T26" t="n">
         <v>209.3474170061614</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>97.9761330404468</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2730,10 +2730,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>26.26723557724689</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>297.9033486299587</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>128.5762704727803</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4377336227562</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.517707055617</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>239.6907226285777</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>269.0231294004118</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>269.4180951482516</v>
+        <v>261.1322146791297</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>156.5792893099589</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>145.5758518932807</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U34" t="n">
         <v>275.6010546203353</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>91.61806223448349</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U35" t="n">
-        <v>196.5169763065601</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>61.52099607453886</v>
@@ -3477,19 +3477,19 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V37" t="n">
-        <v>272.2528724565883</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>173.8363173457081</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>290.4008803017341</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.4377336227562</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>323.4377288721374</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>210.3265910239962</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U40" t="n">
         <v>275.6010546203353</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>207.6589258312074</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
-        <v>261.6461191414551</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T41" t="n">
-        <v>209.3474170061614</v>
+        <v>204.5405349849739</v>
       </c>
       <c r="U41" t="n">
         <v>256.4743901009363</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>4.034381502104456</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>91.82124879523703</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>30.43580493412765</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>249.4710932475244</v>
       </c>
     </row>
     <row r="45">
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>145.5758518932807</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.6907226285777</v>
       </c>
       <c r="U46" t="n">
-        <v>246.2369230157546</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4892,16 +4892,16 @@
         <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>79.6038466735672</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>120.5056996906193</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>132.0096875064238</v>
       </c>
       <c r="Q9" t="n">
         <v>160.929668948206</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>86.08590667097184</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>86.08590667097184</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V9" t="n">
-        <v>86.08590667097184</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.06303325820834</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="C10" t="n">
-        <v>40.06303325820834</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>43.21245152823909</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>50.00587444448112</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>90.90772746153318</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>100.0735327310763</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>109.0213956378918</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
-        <v>117.2861952859146</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V10" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="W10" t="n">
-        <v>40.06303325820834</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="X10" t="n">
-        <v>40.06303325820834</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.06303325820834</v>
+        <v>63.06004933219679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1614.480062263097</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.480062263097</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.570277437541</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
         <v>316.9281030050443</v>
@@ -5038,7 +5038,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435809</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027047</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y11" t="n">
-        <v>1614.480062263097</v>
+        <v>658.9737274659507</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
         <v>803.387703298788</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>888.10816919885</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>749.9721259575934</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E13" t="n">
         <v>584.0941331591162</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>733.4227107706873</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5229,22 +5229,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2157.080056404058</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1878.693424452801</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1591.737916323232</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1319.711511909523</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.711511909523</v>
+        <v>1307.346458603729</v>
       </c>
       <c r="Y13" t="n">
-        <v>1092.291841223631</v>
+        <v>1079.926787917837</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1106.599419841794</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C14" t="n">
-        <v>668.4569470252172</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D14" t="n">
-        <v>232.5471621996617</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>232.5471621996617</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2350.735265756616</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2350.735265756616</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2091.66457427813</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1729.047624211956</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1729.047624211956</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027048</v>
+        <v>1729.047624211956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.898990326702</v>
+        <v>1320.76150051161</v>
       </c>
     </row>
     <row r="15">
@@ -5336,43 +5336,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668975</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,58 +5412,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>890.8935156942559</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C16" t="n">
-        <v>718.3318041774809</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D16" t="n">
-        <v>552.4538113790036</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E16" t="n">
-        <v>382.6958076297408</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>205.988753591497</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728196</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N16" t="n">
-        <v>1842.060047552669</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O16" t="n">
-        <v>1959.825928900431</v>
+        <v>1685.067474329294</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y16" t="n">
-        <v>890.8935156942559</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>713.727106082877</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C17" t="n">
-        <v>713.727106082877</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D17" t="n">
-        <v>713.727106082877</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E17" t="n">
-        <v>713.727106082877</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F17" t="n">
         <v>316.9281030050443</v>
@@ -5509,19 +5509,19 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5536,31 +5536,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438364</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783224</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X17" t="n">
-        <v>1122.013229783224</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y17" t="n">
-        <v>713.727106082877</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043086</v>
@@ -5597,13 +5597,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5615,7 +5615,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
         <v>1676.651116233592</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.0941331591162</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C19" t="n">
-        <v>584.0941331591162</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D19" t="n">
-        <v>584.0941331591162</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092382</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
@@ -5709,16 +5709,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1656.801888486126</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1163.124933196309</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C20" t="n">
-        <v>1163.124933196309</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D20" t="n">
-        <v>1163.124933196309</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E20" t="n">
         <v>744.7955325958366</v>
@@ -5746,25 +5746,25 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286703</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
         <v>1775.96950697326</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381564</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.710627381564</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X20" t="n">
-        <v>1997.710627381564</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y20" t="n">
-        <v>1589.424503681217</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5886,52 +5886,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>663.4738450083642</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C22" t="n">
-        <v>663.4738450083642</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D22" t="n">
-        <v>497.5958522098869</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E22" t="n">
-        <v>419.3529527716346</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F22" t="n">
-        <v>242.6458987333908</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376306</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
@@ -5943,19 +5943,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2448.319106549845</v>
+        <v>1983.162810474879</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.176633733269</v>
+        <v>1545.020337658302</v>
       </c>
       <c r="D23" t="n">
-        <v>1574.266848907713</v>
+        <v>1109.110552832747</v>
       </c>
       <c r="E23" t="n">
-        <v>1140.492104066008</v>
+        <v>675.3358079910417</v>
       </c>
       <c r="F23" t="n">
-        <v>712.6246744752161</v>
+        <v>247.4683784002495</v>
       </c>
       <c r="G23" t="n">
-        <v>313.1926203108159</v>
+        <v>247.4683784002495</v>
       </c>
       <c r="H23" t="n">
         <v>48.96638213099691</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K23" t="n">
         <v>531.4362430141192</v>
@@ -6016,25 +6016,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="Y23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>572.1378646061676</v>
       </c>
       <c r="M24" t="n">
-        <v>771.3389293833792</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N24" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P24" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q24" t="n">
-        <v>1613.147991278647</v>
+        <v>1675.141576563145</v>
       </c>
       <c r="R24" t="n">
         <v>1677.151305564151</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>960.7230595020837</v>
+        <v>567.9931514352785</v>
       </c>
       <c r="C25" t="n">
-        <v>788.1613479853087</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="D25" t="n">
-        <v>622.2833551868314</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E25" t="n">
-        <v>452.5253514375686</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F25" t="n">
-        <v>275.8182973993248</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G25" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H25" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I25" t="n">
         <v>48.96638213099691</v>
@@ -6153,16 +6153,16 @@
         <v>571.8138742903014</v>
       </c>
       <c r="L25" t="n">
-        <v>888.4965680707644</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M25" t="n">
-        <v>1483.45281759531</v>
+        <v>1411.29046233987</v>
       </c>
       <c r="N25" t="n">
-        <v>1615.703969482473</v>
+        <v>1543.541614227034</v>
       </c>
       <c r="O25" t="n">
-        <v>1737.859313719485</v>
+        <v>2085.366207689827</v>
       </c>
       <c r="P25" t="n">
         <v>2189.89120767241</v>
@@ -6174,25 +6174,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S25" t="n">
-        <v>2417.87625268313</v>
+        <v>2312.101852745895</v>
       </c>
       <c r="T25" t="n">
-        <v>2175.764411644163</v>
+        <v>2069.990011706927</v>
       </c>
       <c r="U25" t="n">
-        <v>1897.379507987259</v>
+        <v>1791.605108050023</v>
       </c>
       <c r="V25" t="n">
-        <v>1897.379507987259</v>
+        <v>1504.649599920453</v>
       </c>
       <c r="W25" t="n">
-        <v>1625.35310357355</v>
+        <v>1232.623195506745</v>
       </c>
       <c r="X25" t="n">
-        <v>1379.961348906963</v>
+        <v>987.2314408401573</v>
       </c>
       <c r="Y25" t="n">
-        <v>1152.541678221071</v>
+        <v>759.8117701542656</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1132.349994758291</v>
+        <v>688.6378145792659</v>
       </c>
       <c r="C26" t="n">
-        <v>694.2075219417143</v>
+        <v>688.6378145792659</v>
       </c>
       <c r="D26" t="n">
-        <v>694.2075219417143</v>
+        <v>688.6378145792659</v>
       </c>
       <c r="E26" t="n">
-        <v>694.2075219417143</v>
+        <v>688.6378145792659</v>
       </c>
       <c r="F26" t="n">
-        <v>694.2075219417143</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I26" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L26" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M26" t="n">
         <v>1173.781693844502</v>
@@ -6241,37 +6241,37 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S26" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T26" t="n">
-        <v>2236.857069169884</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U26" t="n">
-        <v>1977.792028663888</v>
+        <v>1938.93530307383</v>
       </c>
       <c r="V26" t="n">
-        <v>1977.792028663888</v>
+        <v>1938.93530307383</v>
       </c>
       <c r="W26" t="n">
-        <v>1977.792028663888</v>
+        <v>1534.079848484863</v>
       </c>
       <c r="X26" t="n">
-        <v>1558.649565243199</v>
+        <v>1114.937385064174</v>
       </c>
       <c r="Y26" t="n">
-        <v>1558.649565243199</v>
+        <v>1114.937385064174</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H27" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I27" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J27" t="n">
         <v>181.8514775085927</v>
@@ -6314,19 +6314,19 @@
         <v>572.1378646061676</v>
       </c>
       <c r="M27" t="n">
-        <v>833.332514667877</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N27" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O27" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q27" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R27" t="n">
         <v>1677.151305564151</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.785408143282</v>
+        <v>898.5806392247719</v>
       </c>
       <c r="C28" t="n">
-        <v>920.2236966265071</v>
+        <v>726.0189277079968</v>
       </c>
       <c r="D28" t="n">
-        <v>754.3457038280299</v>
+        <v>560.1409349095195</v>
       </c>
       <c r="E28" t="n">
-        <v>584.5877000787672</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F28" t="n">
-        <v>407.8806460405234</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G28" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J28" t="n">
         <v>110.0676242284526</v>
@@ -6390,7 +6390,7 @@
         <v>210.475734554476</v>
       </c>
       <c r="L28" t="n">
-        <v>757.1734282372873</v>
+        <v>542.2681845220128</v>
       </c>
       <c r="M28" t="n">
         <v>1137.224434046558</v>
@@ -6399,37 +6399,37 @@
         <v>1711.734389091366</v>
       </c>
       <c r="O28" t="n">
-        <v>2253.558982554159</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P28" t="n">
-        <v>2358.083982536742</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.332917060791</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.948013403887</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V28" t="n">
-        <v>1783.948013403887</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.415452214749</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X28" t="n">
-        <v>1512.023697548161</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.604026862269</v>
+        <v>997.5464301747181</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>578.2734569749732</v>
+        <v>1177.178339249784</v>
       </c>
       <c r="C29" t="n">
-        <v>578.2734569749732</v>
+        <v>1177.178339249784</v>
       </c>
       <c r="D29" t="n">
-        <v>578.2734569749732</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="E29" t="n">
-        <v>578.2734569749732</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F29" t="n">
         <v>448.3984362953971</v>
       </c>
       <c r="G29" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8353788882621</v>
+        <v>122.8353788882628</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786139</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141188</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398446</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M29" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O29" t="n">
         <v>1842.180380803855</v>
@@ -6484,31 +6484,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S29" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T29" t="n">
-        <v>2236.857069169884</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U29" t="n">
-        <v>2236.857069169884</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V29" t="n">
-        <v>2236.857069169884</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W29" t="n">
-        <v>1832.001614580917</v>
+        <v>2004.60692637082</v>
       </c>
       <c r="X29" t="n">
-        <v>1412.859151160228</v>
+        <v>1585.464462950131</v>
       </c>
       <c r="Y29" t="n">
-        <v>1004.573027459881</v>
+        <v>1177.178339249784</v>
       </c>
     </row>
     <row r="30">
@@ -6533,19 +6533,19 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G30" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H30" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I30" t="n">
-        <v>84.4584715023734</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J30" t="n">
-        <v>181.8514775085926</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K30" t="n">
-        <v>348.3116373029835</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L30" t="n">
         <v>510.1442793216697</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>614.2580017145772</v>
+        <v>853.9359338277266</v>
       </c>
       <c r="C31" t="n">
-        <v>441.6962901978021</v>
+        <v>681.3742223109515</v>
       </c>
       <c r="D31" t="n">
-        <v>275.8182973993248</v>
+        <v>515.4962295124742</v>
       </c>
       <c r="E31" t="n">
-        <v>275.8182973993248</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="F31" t="n">
-        <v>275.8182973993248</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G31" t="n">
-        <v>111.1088024083089</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J31" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K31" t="n">
-        <v>571.8138742903013</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L31" t="n">
-        <v>700.3016862051517</v>
+        <v>542.2681845220128</v>
       </c>
       <c r="M31" t="n">
-        <v>1295.257935729697</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N31" t="n">
-        <v>1869.767890774505</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O31" t="n">
-        <v>1991.923235011517</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S31" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T31" t="n">
-        <v>2062.332917060791</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.948013403887</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.992505274317</v>
+        <v>1790.592382312901</v>
       </c>
       <c r="W31" t="n">
-        <v>1224.966100860609</v>
+        <v>1518.565977899193</v>
       </c>
       <c r="X31" t="n">
-        <v>979.5743461940215</v>
+        <v>1273.174223232606</v>
       </c>
       <c r="Y31" t="n">
-        <v>752.1546755081297</v>
+        <v>1045.754552546714</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1620.89051942881</v>
+        <v>750.8787687648763</v>
       </c>
       <c r="C32" t="n">
-        <v>1182.748046612233</v>
+        <v>312.7362959482996</v>
       </c>
       <c r="D32" t="n">
-        <v>910.6085565634939</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="E32" t="n">
-        <v>476.8338117217892</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="F32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882626</v>
+        <v>122.835378888263</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786141</v>
       </c>
       <c r="K32" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L32" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398455</v>
       </c>
       <c r="M32" t="n">
         <v>1173.781693844502</v>
@@ -6715,37 +6715,37 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O32" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P32" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q32" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R32" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W32" t="n">
-        <v>2448.319106549845</v>
+        <v>2004.60692637082</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.176643129156</v>
+        <v>1585.464462950131</v>
       </c>
       <c r="Y32" t="n">
-        <v>1620.89051942881</v>
+        <v>1177.178339249784</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C33" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D33" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E33" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F33" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G33" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H33" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I33" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J33" t="n">
-        <v>953.0192784942872</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K33" t="n">
-        <v>1119.479438288678</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L33" t="n">
-        <v>1343.305665591862</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M33" t="n">
-        <v>1604.500315653572</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N33" t="n">
-        <v>1872.608010893477</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>2117.874172948134</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P33" t="n">
-        <v>2314.721891043801</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R33" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S33" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T33" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U33" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V33" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W33" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X33" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y33" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>946.3222462781964</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C34" t="n">
-        <v>788.1613479853087</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D34" t="n">
-        <v>622.2833551868314</v>
+        <v>365.7707009239775</v>
       </c>
       <c r="E34" t="n">
-        <v>452.5253514375686</v>
+        <v>196.0126971747148</v>
       </c>
       <c r="F34" t="n">
-        <v>275.8182973993248</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G34" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I34" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J34" t="n">
         <v>110.0676242284526</v>
@@ -6864,46 +6864,46 @@
         <v>210.475734554476</v>
       </c>
       <c r="L34" t="n">
-        <v>542.2681845220123</v>
+        <v>757.1734282372873</v>
       </c>
       <c r="M34" t="n">
-        <v>1137.224434046558</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N34" t="n">
-        <v>1711.734389091366</v>
+        <v>1926.639632806641</v>
       </c>
       <c r="O34" t="n">
-        <v>2253.558982554159</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P34" t="n">
-        <v>2358.083982536742</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q34" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R34" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S34" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T34" t="n">
-        <v>2448.319106549845</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U34" t="n">
-        <v>2169.934202892941</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V34" t="n">
-        <v>1882.978694763371</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W34" t="n">
-        <v>1610.952290349663</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X34" t="n">
-        <v>1365.560535683075</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.140864997184</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1784.660814205626</v>
+        <v>1412.859151160228</v>
       </c>
       <c r="C35" t="n">
-        <v>1346.51834138905</v>
+        <v>974.716678343651</v>
       </c>
       <c r="D35" t="n">
-        <v>910.6085565634939</v>
+        <v>974.716678343651</v>
       </c>
       <c r="E35" t="n">
-        <v>476.8338117217892</v>
+        <v>540.9419335019461</v>
       </c>
       <c r="F35" t="n">
-        <v>48.96638213099691</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G35" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I35" t="n">
         <v>122.8353788882622</v>
       </c>
       <c r="J35" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786133</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141189</v>
       </c>
       <c r="L35" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N35" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O35" t="n">
         <v>1842.180380803855</v>
@@ -6964,25 +6964,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S35" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T35" t="n">
-        <v>2409.462380959787</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="U35" t="n">
-        <v>2210.960384690534</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="V35" t="n">
-        <v>2210.960384690534</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="W35" t="n">
-        <v>2210.960384690534</v>
+        <v>1832.001614580917</v>
       </c>
       <c r="X35" t="n">
-        <v>2210.960384690534</v>
+        <v>1412.859151160228</v>
       </c>
       <c r="Y35" t="n">
-        <v>2210.960384690534</v>
+        <v>1412.859151160228</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G36" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H36" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I36" t="n">
-        <v>84.45847150237341</v>
+        <v>84.4584715023734</v>
       </c>
       <c r="J36" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K36" t="n">
         <v>286.3180520184858</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.785408143282</v>
+        <v>630.1355717125905</v>
       </c>
       <c r="C37" t="n">
-        <v>920.2236966265071</v>
+        <v>457.5738601958154</v>
       </c>
       <c r="D37" t="n">
-        <v>754.3457038280299</v>
+        <v>457.5738601958154</v>
       </c>
       <c r="E37" t="n">
-        <v>584.5877000787672</v>
+        <v>287.8158564465527</v>
       </c>
       <c r="F37" t="n">
-        <v>407.8806460405234</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="G37" t="n">
-        <v>243.1711510495074</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="H37" t="n">
         <v>111.1088024083089</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J37" t="n">
         <v>110.0676242284526</v>
@@ -7101,10 +7101,10 @@
         <v>210.475734554476</v>
       </c>
       <c r="L37" t="n">
-        <v>542.2681845220123</v>
+        <v>542.2681845220119</v>
       </c>
       <c r="M37" t="n">
-        <v>1137.224434046558</v>
+        <v>1137.224434046557</v>
       </c>
       <c r="N37" t="n">
         <v>1711.734389091366</v>
@@ -7125,22 +7125,22 @@
         <v>2304.444758099758</v>
       </c>
       <c r="T37" t="n">
-        <v>2304.444758099758</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U37" t="n">
-        <v>2304.444758099758</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.441856628457</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.415452214749</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X37" t="n">
-        <v>1512.023697548161</v>
+        <v>1049.373861117469</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.604026862269</v>
+        <v>821.9541904315777</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>741.7326588224013</v>
+        <v>882.1731811371019</v>
       </c>
       <c r="C38" t="n">
-        <v>741.7326588224013</v>
+        <v>882.1731811371019</v>
       </c>
       <c r="D38" t="n">
-        <v>741.7326588224013</v>
+        <v>882.1731811371019</v>
       </c>
       <c r="E38" t="n">
-        <v>741.7326588224013</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="F38" t="n">
         <v>448.3984362953971</v>
@@ -7171,19 +7171,19 @@
         <v>48.96638213099691</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K38" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141193</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N38" t="n">
         <v>1517.560141290067</v>
@@ -7201,25 +7201,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S38" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T38" t="n">
-        <v>2198.000343579825</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U38" t="n">
-        <v>1938.935303073829</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="V38" t="n">
-        <v>1576.318353007656</v>
+        <v>2121.614329911323</v>
       </c>
       <c r="W38" t="n">
-        <v>1576.318353007656</v>
+        <v>1716.758875322356</v>
       </c>
       <c r="X38" t="n">
-        <v>1576.318353007656</v>
+        <v>1716.758875322356</v>
       </c>
       <c r="Y38" t="n">
-        <v>1168.032229307309</v>
+        <v>1308.47275162201</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C39" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D39" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E39" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F39" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G39" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H39" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I39" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J39" t="n">
-        <v>953.0192784942872</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K39" t="n">
-        <v>1119.479438288678</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L39" t="n">
-        <v>1343.305665591862</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M39" t="n">
-        <v>1604.500315653572</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N39" t="n">
-        <v>1872.608010893477</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O39" t="n">
-        <v>2117.874172948134</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P39" t="n">
-        <v>2314.721891043801</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2446.309377548838</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R39" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S39" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T39" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U39" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V39" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W39" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X39" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y39" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.8711442337558</v>
+        <v>721.873585186528</v>
       </c>
       <c r="C40" t="n">
-        <v>561.3094327169807</v>
+        <v>549.3118736697529</v>
       </c>
       <c r="D40" t="n">
-        <v>395.4314399185034</v>
+        <v>383.4338808712756</v>
       </c>
       <c r="E40" t="n">
-        <v>225.6734361692407</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="F40" t="n">
-        <v>48.96638213099691</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G40" t="n">
         <v>48.96638213099691</v>
@@ -7362,22 +7362,22 @@
         <v>2448.319106549845</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.868004505405</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.4831008485</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V40" t="n">
-        <v>1670.527592718931</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.501188305222</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X40" t="n">
-        <v>1153.109433638635</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y40" t="n">
-        <v>925.689762952743</v>
+        <v>913.692203905515</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1615.175078597714</v>
+        <v>1581.173789392694</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.032605781138</v>
+        <v>1581.173789392694</v>
       </c>
       <c r="D41" t="n">
-        <v>741.1228209555823</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="E41" t="n">
-        <v>741.1228209555823</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="F41" t="n">
-        <v>313.25539136479</v>
+        <v>717.396574976346</v>
       </c>
       <c r="G41" t="n">
-        <v>313.25539136479</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882626</v>
+        <v>122.835378888263</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786141</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L41" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398455</v>
       </c>
       <c r="M41" t="n">
         <v>1173.781693844502</v>
@@ -7426,37 +7426,37 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O41" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P41" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S41" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T41" t="n">
-        <v>2236.857069169884</v>
+        <v>2202.855779964864</v>
       </c>
       <c r="U41" t="n">
-        <v>1977.792028663888</v>
+        <v>1943.790739458867</v>
       </c>
       <c r="V41" t="n">
-        <v>1615.175078597714</v>
+        <v>1581.173789392694</v>
       </c>
       <c r="W41" t="n">
-        <v>1615.175078597714</v>
+        <v>1581.173789392694</v>
       </c>
       <c r="X41" t="n">
-        <v>1615.175078597714</v>
+        <v>1581.173789392694</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.175078597714</v>
+        <v>1581.173789392694</v>
       </c>
     </row>
     <row r="42">
@@ -7484,13 +7484,13 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I42" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J42" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K42" t="n">
         <v>286.3180520184858</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.3360567891425</v>
+        <v>695.0069913182302</v>
       </c>
       <c r="C43" t="n">
-        <v>560.3360567891425</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="D43" t="n">
-        <v>394.4580639906652</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="E43" t="n">
-        <v>394.4580639906652</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F43" t="n">
-        <v>217.7510099524214</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G43" t="n">
-        <v>53.04151496140545</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H43" t="n">
-        <v>53.04151496140545</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J43" t="n">
         <v>110.0676242284526</v>
       </c>
       <c r="K43" t="n">
-        <v>210.475734554476</v>
+        <v>341.7988743879534</v>
       </c>
       <c r="L43" t="n">
-        <v>757.1734282372873</v>
+        <v>888.4965680707649</v>
       </c>
       <c r="M43" t="n">
-        <v>1352.129677761833</v>
+        <v>1483.45281759531</v>
       </c>
       <c r="N43" t="n">
-        <v>1926.639632806641</v>
+        <v>1615.703969482474</v>
       </c>
       <c r="O43" t="n">
-        <v>2253.558982554159</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P43" t="n">
-        <v>2358.083982536742</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T43" t="n">
-        <v>2062.332917060791</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U43" t="n">
-        <v>1783.948013403887</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.992505274317</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W43" t="n">
-        <v>1224.966100860609</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X43" t="n">
-        <v>979.5743461940215</v>
+        <v>979.5743461940224</v>
       </c>
       <c r="Y43" t="n">
-        <v>752.1546755081297</v>
+        <v>886.8256100372173</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1379.49426668727</v>
+        <v>1350.886069363921</v>
       </c>
       <c r="C44" t="n">
-        <v>941.3517938706937</v>
+        <v>912.7435965473446</v>
       </c>
       <c r="D44" t="n">
-        <v>941.3517938706937</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E44" t="n">
-        <v>507.5770490289888</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F44" t="n">
-        <v>79.70961943819657</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G44" t="n">
         <v>48.96638213099692</v>
@@ -7675,25 +7675,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S44" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T44" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U44" t="n">
-        <v>2150.397340453791</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="V44" t="n">
-        <v>1787.780390387617</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="W44" t="n">
-        <v>1787.780390387617</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="X44" t="n">
-        <v>1787.780390387617</v>
+        <v>2029.176643129157</v>
       </c>
       <c r="Y44" t="n">
-        <v>1379.49426668727</v>
+        <v>1777.185639848829</v>
       </c>
     </row>
     <row r="45">
@@ -7727,7 +7727,7 @@
         <v>84.45847150237343</v>
       </c>
       <c r="J45" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240948</v>
       </c>
       <c r="K45" t="n">
         <v>286.3180520184857</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.8711442337558</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C46" t="n">
-        <v>561.3094327169807</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D46" t="n">
-        <v>395.4314399185034</v>
+        <v>365.7707009239775</v>
       </c>
       <c r="E46" t="n">
-        <v>225.6734361692407</v>
+        <v>196.0126971747148</v>
       </c>
       <c r="F46" t="n">
         <v>48.96638213099692</v>
@@ -7812,16 +7812,16 @@
         <v>210.475734554476</v>
       </c>
       <c r="L46" t="n">
-        <v>757.1734282372873</v>
+        <v>654.2451577325839</v>
       </c>
       <c r="M46" t="n">
-        <v>1352.129677761833</v>
+        <v>789.7175400762163</v>
       </c>
       <c r="N46" t="n">
-        <v>1926.639632806641</v>
+        <v>1364.227495121025</v>
       </c>
       <c r="O46" t="n">
-        <v>2253.55898255416</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P46" t="n">
         <v>2358.083982536743</v>
@@ -7839,19 +7839,19 @@
         <v>2206.207265510879</v>
       </c>
       <c r="U46" t="n">
-        <v>1957.4831008485</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V46" t="n">
-        <v>1670.527592718931</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.501188305222</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X46" t="n">
-        <v>1153.109433638635</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y46" t="n">
-        <v>925.689762952743</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
   </sheetData>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.46456242451583</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>22.99211437686851</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.624666072174222</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>27.86212986344088</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>20.2192130101177</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.13460278809135</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869803</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.530227110285693</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477706</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
         <v>36.36928463638102</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>45.75904403825052</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9087,13 +9087,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>45.75904403825052</v>
+        <v>323.2928365343466</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.730423204287</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>177.1920849464607</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>190.0958402682955</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>158.8954666900249</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>205.3582202552388</v>
       </c>
       <c r="M28" t="n">
-        <v>247.0491146117555</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>205.3582202552388</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10284,13 +10284,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>94.38684108920143</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>205.3582202552384</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10521,7 +10521,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>205.3582202552384</v>
+        <v>205.3582202552379</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>132.6496361954318</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11229,16 +11229,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>206.8323287984913</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>318.4662740032906</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>206.8323287984917</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>83.41140656376143</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.76526121703216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>34.08141159276337</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>38.60970602238595</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>240.1015507506844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>30.56531751314184</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.8993885614899</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>93.63231361822176</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>157.4702889230267</v>
       </c>
       <c r="F17" t="n">
-        <v>30.75774224783004</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>246.0053115744586</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>15.29089079881959</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>201.567237722248</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>90.59995326790037</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>207.8068631386901</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>4.724181496118547</v>
+        <v>69.79118098757931</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.3474170061614</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>112.2971796375377</v>
+        <v>7.580523699674501</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,13 +24454,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>185.7517707938543</v>
       </c>
       <c r="G26" t="n">
-        <v>22.95716250428535</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>91.92429949135044</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>243.0389047923245</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>133.6473383473412</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>295.012484822104</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415828</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
         <v>256.4743901009363</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.38272547618027</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>15.06282364786205</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>162.1325918290484</v>
+        <v>170.4184722981702</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.4377336227562</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
@@ -24979,7 +24979,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>14.25680509164846</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H34" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>331.9706930604008</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>266.3081572941393</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>59.95741379437612</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>11.83308059168553</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>69.10151977421353</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,10 +25399,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>133.1878749931502</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>35.55305169337436</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>130.7417251547865</v>
@@ -25602,7 +25602,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
-        <v>29.36413160458147</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>17.4865481478254</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.662038152684204</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.806882021187505</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.4866145724344</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>133.3242251837958</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>365.0019286886285</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
         <v>266.3081572941393</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T44" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>154.7321692158187</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="G46" t="n">
         <v>163.0624000411058</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>29.36413160458071</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>341177.6120413084</v>
+        <v>341177.6120413085</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351198.0942606169</v>
+        <v>351198.0942606168</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>351198.0942606168</v>
+        <v>351198.0942606169</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351198.0942606168</v>
+        <v>351198.0942606169</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379453.8588450989</v>
+        <v>379453.858845099</v>
       </c>
       <c r="C2" t="n">
         <v>379453.8588450989</v>
@@ -26325,13 +26325,13 @@
         <v>228081.4783861851</v>
       </c>
       <c r="F2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.478386185</v>
       </c>
       <c r="G2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="H2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="I2" t="n">
         <v>234682.5783707575</v>
@@ -26343,10 +26343,10 @@
         <v>234682.5783707575</v>
       </c>
       <c r="L2" t="n">
-        <v>234682.5783707575</v>
+        <v>234682.5783707576</v>
       </c>
       <c r="M2" t="n">
-        <v>234682.5783707575</v>
+        <v>234682.5783707574</v>
       </c>
       <c r="N2" t="n">
         <v>234682.5783707575</v>
@@ -26355,7 +26355,7 @@
         <v>234682.5783707575</v>
       </c>
       <c r="P2" t="n">
-        <v>234682.5783707576</v>
+        <v>234682.5783707575</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.25053091295171e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935645</v>
+        <v>18943.98047935648</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294691.6588548442</v>
@@ -26429,34 +26429,34 @@
         <v>19185.36025012662</v>
       </c>
       <c r="F4" t="n">
+        <v>19185.36025012661</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19185.36025012663</v>
+      </c>
+      <c r="H4" t="n">
         <v>19185.36025012662</v>
       </c>
-      <c r="G4" t="n">
-        <v>19185.36025012662</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19185.36025012663</v>
-      </c>
       <c r="I4" t="n">
+        <v>19886.70767725207</v>
+      </c>
+      <c r="J4" t="n">
         <v>19886.70767725208</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>19886.70767725208</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19886.70767725208</v>
+      </c>
+      <c r="M4" t="n">
         <v>19886.70767725207</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19886.70767725207</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19886.70767725207</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19886.70767725208</v>
       </c>
       <c r="N4" t="n">
         <v>19886.70767725207</v>
       </c>
       <c r="O4" t="n">
-        <v>19886.70767725207</v>
+        <v>19886.70767725208</v>
       </c>
       <c r="P4" t="n">
         <v>19886.70767725208</v>
@@ -26481,13 +26481,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
         <v>47767.76961397016</v>
@@ -26496,7 +26496,7 @@
         <v>47767.76961397016</v>
       </c>
       <c r="K5" t="n">
-        <v>47767.76961397015</v>
+        <v>47767.76961397016</v>
       </c>
       <c r="L5" t="n">
         <v>47767.76961397016</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326613</v>
+        <v>47063.63581576456</v>
       </c>
       <c r="C6" t="n">
-        <v>47095.54253326607</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="D6" t="n">
-        <v>16277.68371073601</v>
+        <v>16277.68371073613</v>
       </c>
       <c r="E6" t="n">
-        <v>-349640.472629561</v>
+        <v>-350194.353072783</v>
       </c>
       <c r="F6" t="n">
-        <v>162845.0369264207</v>
+        <v>162291.1564831987</v>
       </c>
       <c r="G6" t="n">
-        <v>162845.0369264208</v>
+        <v>162291.1564831986</v>
       </c>
       <c r="H6" t="n">
-        <v>162845.0369264207</v>
+        <v>162291.1564831987</v>
       </c>
       <c r="I6" t="n">
-        <v>148084.1206001788</v>
+        <v>147553.0025706968</v>
       </c>
       <c r="J6" t="n">
-        <v>167028.1010795352</v>
+        <v>166496.9830500532</v>
       </c>
       <c r="K6" t="n">
-        <v>167028.1010795352</v>
+        <v>166496.9830500533</v>
       </c>
       <c r="L6" t="n">
-        <v>156571.6456432336</v>
+        <v>156040.5276137516</v>
       </c>
       <c r="M6" t="n">
-        <v>30273.19669641987</v>
+        <v>29742.07866693782</v>
       </c>
       <c r="N6" t="n">
-        <v>167028.1010795353</v>
+        <v>166496.9830500533</v>
       </c>
       <c r="O6" t="n">
-        <v>167028.1010795352</v>
+        <v>166496.9830500532</v>
       </c>
       <c r="P6" t="n">
-        <v>167028.1010795354</v>
+        <v>166496.9830500533</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
@@ -26764,7 +26764,7 @@
         <v>484.0972107528674</v>
       </c>
       <c r="K3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="L3" t="n">
         <v>484.0972107528674</v>
@@ -26801,34 +26801,34 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
         <v>612.0797766374614</v>
       </c>
       <c r="J4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="K4" t="n">
+        <v>612.0797766374615</v>
+      </c>
+      <c r="L4" t="n">
+        <v>612.0797766374615</v>
+      </c>
+      <c r="M4" t="n">
         <v>612.0797766374612</v>
-      </c>
-      <c r="L4" t="n">
-        <v>612.0797766374614</v>
-      </c>
-      <c r="M4" t="n">
-        <v>612.0797766374614</v>
       </c>
       <c r="N4" t="n">
         <v>612.0797766374614</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="P4" t="n">
         <v>612.0797766374615</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.645358524892537e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552699</v>
+        <v>21.9978822755271</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144065</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.645358524892537e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>43.14578572036749</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>24.44494263490342</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>87.27789097014248</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>138.1782919728362</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28016,7 +28016,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>127.8289581862304</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28028,10 +28028,10 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9780290613614</v>
+        <v>120.1357315113781</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888225</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28073,7 +28073,7 @@
         <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916724</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,10 +32244,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
@@ -32797,7 +32797,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>201.2131967446583</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
         <v>270.8158537776819</v>
@@ -32812,7 +32812,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959995</v>
+        <v>2.030029293945518</v>
       </c>
       <c r="S24" t="n">
         <v>19.34105365602257</v>
@@ -33034,7 +33034,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N27" t="n">
         <v>270.8158537776819</v>
@@ -33049,7 +33049,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R27" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959995</v>
       </c>
       <c r="S27" t="n">
         <v>19.34105365602257</v>
@@ -33177,31 +33177,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H29" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q29" t="n">
         <v>210.1590056992511</v>
@@ -33213,10 +33213,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T29" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365582</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K30" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
-        <v>163.4673151703901</v>
+        <v>163.46731517039</v>
       </c>
       <c r="M30" t="n">
         <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
         <v>198.8360788845127</v>
@@ -33286,16 +33286,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R30" t="n">
-        <v>64.64981240959993</v>
+        <v>64.64981240959995</v>
       </c>
       <c r="S30" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T30" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130991</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H31" t="n">
-        <v>7.761427411742698</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K31" t="n">
         <v>101.4223336626499</v>
@@ -33353,19 +33353,19 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P31" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R31" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S31" t="n">
         <v>15.21335004939748</v>
@@ -33374,7 +33374,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.29686991973722</v>
+        <v>70.29686991973676</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959995</v>
@@ -33736,10 +33736,10 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800152</v>
       </c>
       <c r="K36" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
         <v>226.0870982860444</v>
@@ -33973,7 +33973,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365583</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498898</v>
@@ -33997,7 +33997,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293946427</v>
+        <v>64.64981240959995</v>
       </c>
       <c r="S39" t="n">
         <v>19.34105365602257</v>
@@ -34210,10 +34210,10 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800149</v>
       </c>
       <c r="K42" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L42" t="n">
         <v>226.0870982860444</v>
@@ -34447,10 +34447,10 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365585</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K45" t="n">
-        <v>105.5217924342354</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
@@ -35260,19 +35260,19 @@
         <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
+        <v>17.85044062301152</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18.32288867065883</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16.76186346679083</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="N9" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O9" t="n">
-        <v>18.38652953896505</v>
-      </c>
-      <c r="P9" t="n">
-        <v>13.45287318408649</v>
-      </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>29.21210246644671</v>
       </c>
       <c r="R9" t="n">
         <v>4.37408408273069</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>40.31035483276455</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
+        <v>8.781052968829309</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.258389161154689</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.5684724707054</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M10" t="n">
-        <v>9.258389161154682</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.038245360419708</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.348282472750284</v>
-      </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35573,19 +35573,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>170.8810658749151</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916724</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366647</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>147.545969470254</v>
+        <v>425.0797619663501</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409516</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619344</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36126,10 +36126,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712378</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,10 +36357,10 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
         <v>307.1122435613393</v>
@@ -36445,7 +36445,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>201.2131967446583</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
         <v>270.8158537776819</v>
@@ -36460,7 +36460,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959992</v>
+        <v>2.030029293945518</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>378.9561261587465</v>
       </c>
       <c r="L25" t="n">
-        <v>319.8815088691545</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M25" t="n">
-        <v>600.9659086106519</v>
+        <v>295.7362569361183</v>
       </c>
       <c r="N25" t="n">
         <v>133.5870221082462</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P25" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
         <v>242.9903706058367</v>
@@ -36597,7 +36597,7 @@
         <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L26" t="n">
         <v>307.1122435613393</v>
@@ -36609,7 +36609,7 @@
         <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P26" t="n">
         <v>279.8544081518626</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K27" t="n">
         <v>168.1415755498898</v>
@@ -36682,7 +36682,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N27" t="n">
         <v>270.8158537776819</v>
@@ -36697,7 +36697,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R27" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,10 +36758,10 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>552.2198926089004</v>
+        <v>335.1438888560978</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8899048578488</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N28" t="n">
         <v>580.3130859038467</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
         <v>247.5536907429349</v>
@@ -36849,10 +36849,10 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R29" t="n">
         <v>122.2479252862504</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
-        <v>163.4673151703901</v>
+        <v>163.46731517039</v>
       </c>
       <c r="M30" t="n">
         <v>263.8329798603127</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K31" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
-        <v>129.7856686008589</v>
+        <v>335.1438888560978</v>
       </c>
       <c r="M31" t="n">
         <v>600.9659086106519</v>
@@ -37004,13 +37004,13 @@
         <v>580.3130859038467</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P31" t="n">
-        <v>199.9676491524169</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R31" t="n">
         <v>18.04791108854245</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J33" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K33" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
         <v>263.8329798603127</v>
@@ -37162,16 +37162,16 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.29686991973722</v>
+        <v>70.29686991973676</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240960014</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
-        <v>335.1438888560973</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M34" t="n">
-        <v>600.9659086106519</v>
+        <v>600.9659086106518</v>
       </c>
       <c r="N34" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O34" t="n">
-        <v>547.2975691543368</v>
+        <v>330.221565401534</v>
       </c>
       <c r="P34" t="n">
         <v>105.5808080632155</v>
@@ -37305,16 +37305,16 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L35" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N35" t="n">
         <v>347.2509570157226</v>
@@ -37384,10 +37384,10 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365585</v>
+        <v>35.75699062800152</v>
       </c>
       <c r="K36" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
         <v>226.0870982860444</v>
@@ -37469,7 +37469,7 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L37" t="n">
-        <v>335.1438888560973</v>
+        <v>335.1438888560969</v>
       </c>
       <c r="M37" t="n">
         <v>600.9659086106519</v>
@@ -37542,22 +37542,22 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L38" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N38" t="n">
         <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P38" t="n">
         <v>279.8544081518626</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.3767737436558</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
         <v>263.8329798603127</v>
@@ -37636,16 +37636,16 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293946427</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365585</v>
+        <v>35.75699062800149</v>
       </c>
       <c r="K42" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L42" t="n">
         <v>226.0870982860444</v>
@@ -37940,25 +37940,25 @@
         <v>61.71842636106638</v>
       </c>
       <c r="K43" t="n">
-        <v>101.4223336626499</v>
+        <v>234.0719698580816</v>
       </c>
       <c r="L43" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M43" t="n">
-        <v>600.9659086106518</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N43" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O43" t="n">
-        <v>330.2215654015336</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P43" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R43" t="n">
         <v>18.04791108854245</v>
@@ -38095,10 +38095,10 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365583</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K45" t="n">
-        <v>105.5217924342354</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
@@ -38180,19 +38180,19 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L46" t="n">
-        <v>552.2198926089004</v>
+        <v>448.2519426041495</v>
       </c>
       <c r="M46" t="n">
-        <v>600.9659086106518</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>580.313085903847</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O46" t="n">
-        <v>330.221565401534</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P46" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q46" t="n">
         <v>73.0986788236828</v>
